--- a/public/fileku/muridxls.xlsx
+++ b/public/fileku/muridxls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\difka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\difka\Desktop\file import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>difkaa</t>
-  </si>
-  <si>
     <t>difkaaaaa@a.com</t>
   </si>
   <si>
@@ -68,13 +65,16 @@
     <t>school_id</t>
   </si>
   <si>
-    <t>jj</t>
-  </si>
-  <si>
     <t>kjk@g.com</t>
   </si>
   <si>
     <t>/kk/p.png</t>
+  </si>
+  <si>
+    <t>imron</t>
+  </si>
+  <si>
+    <t>iksan</t>
   </si>
 </sst>
 </file>
@@ -125,10 +125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,66 +414,66 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>12130</v>
       </c>
       <c r="F2">
@@ -485,7 +486,7 @@
         <v>8121291291</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -493,12 +494,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>9898</v>
       </c>
       <c r="F3">
@@ -511,7 +512,7 @@
         <v>89886778</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
